--- a/data/trans_bre/P2A_enfcro_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,25; 15,4</t>
+          <t>8,07; 15,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,05; 13,21</t>
+          <t>7,08; 13,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,93; 18,22</t>
+          <t>9,95; 18,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,84</t>
+          <t>-0,85; 3,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,95; 23,75</t>
+          <t>11,66; 23,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,87; 17,75</t>
+          <t>8,85; 17,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,55; 26,9</t>
+          <t>13,51; 26,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,16</t>
+          <t>-0,89; 4,12</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,06; 16,73</t>
+          <t>10,1; 17,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,14; 15,44</t>
+          <t>9,14; 15,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,39; 11,84</t>
+          <t>5,31; 11,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 0,11</t>
+          <t>-3,36; 0,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,74; 46,73</t>
+          <t>25,77; 47,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 34,34</t>
+          <t>19,06; 34,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,97; 25,74</t>
+          <t>10,95; 25,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,11</t>
+          <t>-3,44; 0,13</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 19,32</t>
+          <t>6,36; 19,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 13,17</t>
+          <t>-0,87; 13,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 13,88</t>
+          <t>0,73; 13,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,65</t>
+          <t>-1,88; 0,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,47; 54,16</t>
+          <t>15,74; 55,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 30,71</t>
+          <t>-1,77; 29,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 38,68</t>
+          <t>1,68; 35,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,66</t>
+          <t>-1,9; 0,63</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,77; 17,43</t>
+          <t>12,44; 17,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,19; 15,94</t>
+          <t>11,17; 15,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,13; 13,92</t>
+          <t>8,71; 13,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,25</t>
+          <t>-2,46; 0,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,23; 38,34</t>
+          <t>25,89; 37,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,81; 29,79</t>
+          <t>19,62; 29,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,27; 27,93</t>
+          <t>16,59; 27,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,27</t>
+          <t>-2,54; 0,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_enfcro_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Estudios-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>13,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,13</t>
+          <t>10,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,76</t>
+          <t>14,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>10,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>18,78%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 15,46</t>
+          <t>9,31; 17,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 13,07</t>
+          <t>7,07; 13,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,95; 18,38</t>
+          <t>10,67; 18,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,81</t>
+          <t>5,51; 14,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,66; 23,87</t>
+          <t>14,44; 28,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,85; 17,37</t>
+          <t>9,15; 18,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,51; 26,74</t>
+          <t>14,92; 28,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 4,12</t>
+          <t>9,69; 29,69</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,55</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,34</t>
+          <t>12,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,55</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>11,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>42,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,44%</t>
+          <t>39,64%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,1; 17,11</t>
+          <t>11,76; 18,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,14; 15,59</t>
+          <t>9,44; 15,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 11,62</t>
+          <t>5,24; 11,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 0,13</t>
+          <t>2,53; 31,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,77; 47,62</t>
+          <t>31,91; 55,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,06; 34,77</t>
+          <t>20,4; 36,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,95; 25,52</t>
+          <t>10,73; 26,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,13</t>
+          <t>6,8; 130,45</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>12,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>33,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>7,19%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 19,57</t>
+          <t>5,83; 18,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 13,04</t>
+          <t>-1,21; 13,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 13,02</t>
+          <t>1,58; 13,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,61</t>
+          <t>-3,17; 6,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,74; 55,99</t>
+          <t>14,56; 54,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 29,88</t>
+          <t>-1,75; 31,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 35,24</t>
+          <t>3,77; 37,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,63</t>
+          <t>-9,88; 25,68</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,99</t>
+          <t>16,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,52</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,31</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>10,77</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>33,67%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,44; 17,36</t>
+          <t>13,65; 18,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,17; 15,94</t>
+          <t>11,32; 16,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 13,73</t>
+          <t>9,09; 14,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,19</t>
+          <t>4,84; 23,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,89; 37,94</t>
+          <t>29,81; 42,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,62; 29,6</t>
+          <t>20,41; 30,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,59; 27,63</t>
+          <t>18,01; 29,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 0,19</t>
+          <t>13,71; 80,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_enfcro_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,31; 17,04</t>
+          <t>9,45; 16,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,07; 13,43</t>
+          <t>6,8; 13,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 18,98</t>
+          <t>10,42; 18,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 14,95</t>
+          <t>5,46; 14,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,44; 28,21</t>
+          <t>14,46; 28,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,15; 18,46</t>
+          <t>8,8; 18,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,92; 28,63</t>
+          <t>14,39; 28,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,69; 29,69</t>
+          <t>9,54; 28,6</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,76; 18,77</t>
+          <t>11,72; 18,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 15,91</t>
+          <t>9,38; 16,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 11,83</t>
+          <t>5,48; 11,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 31,61</t>
+          <t>2,18; 30,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,91; 55,88</t>
+          <t>31,44; 55,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,4; 36,46</t>
+          <t>20,34; 37,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,73; 26,76</t>
+          <t>11,82; 27,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,8; 130,45</t>
+          <t>6,83; 126,47</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,83; 18,77</t>
+          <t>6,54; 18,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 13,08</t>
+          <t>-0,4; 13,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 13,49</t>
+          <t>2,09; 13,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 6,69</t>
+          <t>-2,68; 6,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,56; 54,76</t>
+          <t>16,07; 55,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 31,44</t>
+          <t>-0,7; 31,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 37,49</t>
+          <t>5,07; 38,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 25,68</t>
+          <t>-8,69; 26,84</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,65; 18,43</t>
+          <t>13,69; 18,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,32; 16,14</t>
+          <t>11,63; 16,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,09; 14,04</t>
+          <t>9,39; 14,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,84; 23,79</t>
+          <t>5,12; 23,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,81; 42,9</t>
+          <t>29,96; 42,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,41; 30,72</t>
+          <t>21,1; 31,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,01; 29,15</t>
+          <t>18,63; 29,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,71; 80,82</t>
+          <t>14,56; 85,41</t>
         </is>
       </c>
     </row>
